--- a/biology/Botanique/Graves-supérieures/Graves-supérieures.xlsx
+++ b/biology/Botanique/Graves-supérieures/Graves-supérieures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Graves-sup%C3%A9rieures</t>
+          <t>Graves-supérieures</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le graves-supérieures[1] est un vin moelleux français d'appellation d'origine contrôlée produit dans le vignoble des Graves, une des subdivisions du vignoble de Bordeaux.
+Le graves-supérieures est un vin moelleux français d'appellation d'origine contrôlée produit dans le vignoble des Graves, une des subdivisions du vignoble de Bordeaux.
 L'appellation partage son aire de production avec l'appellation régionale graves.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Graves-sup%C3%A9rieures</t>
+          <t>Graves-supérieures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Aire d'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Arbanats, Ayguemortes-les-Graves, Beautiran, Bègles, La Brède, Budos, Cabanac-Villagrains, Cadaujac, Canéjan, Castres-Gironde, Cérons, Cestas, Eysines, Gradignan, Guillos, Le Haillan, Illats, Isle-Saint-Georges, Landiras, Langon, Léogeats, Léognan, Martignas-sur-Jalle, Martillac, Mazères, Mérignac, Pessac, Podensac, Portets, Pujols-sur-Ciron, Roaillan, Saint-Jean-d'Illac, Saint-Médard-d'Eyrans, Saint-Michel-de-Rieufret, Saint-Morillon, Saint-Pardon-de-Conques, Saint-Pierre-de-Mons, Saint-Selve, Saucats, Talence, Toulenne, Villenave-d'Ornon et Virelade[4].
+Arbanats, Ayguemortes-les-Graves, Beautiran, Bègles, La Brède, Budos, Cabanac-Villagrains, Cadaujac, Canéjan, Castres-Gironde, Cérons, Cestas, Eysines, Gradignan, Guillos, Le Haillan, Illats, Isle-Saint-Georges, Landiras, Langon, Léogeats, Léognan, Martignas-sur-Jalle, Martillac, Mazères, Mérignac, Pessac, Podensac, Portets, Pujols-sur-Ciron, Roaillan, Saint-Jean-d'Illac, Saint-Médard-d'Eyrans, Saint-Michel-de-Rieufret, Saint-Morillon, Saint-Pardon-de-Conques, Saint-Pierre-de-Mons, Saint-Selve, Saucats, Talence, Toulenne, Villenave-d'Ornon et Virelade.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Graves-sup%C3%A9rieures</t>
+          <t>Graves-supérieures</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Graves portent le nom du type de sol dominant, les graves, qui sont des dépôts de graviers et de galets souvent mélangés à du sable et de l'argile, déposés par la Garonne. Elles forment une série de terrasses en pente douce de plus en plus anciennes à mesure qu'on s'éloigne du fleuve. Il y a d'abord les « argiles des palus », formation argilo-sableuse des anciens marais bordant la Garonne (où est autorisée la production du bordeaux générique) ;
 puis il y a la terrasse datant du Mindel (Pléistocène moyen) formée de graves dans une matrice argileuse, à laquelle succède celle du Pléistocène inférieur (sur laquelle se trouve Haut-Brion, Pape Clément, Carbonnieux, La Louvière, Smith Haut Lafitte, etc.) avec enfin à l'ouest la « formation de Dépée » composée de sables argileux et de petits graviers (sur laquelle se trouve Fieuzal), qui annonce les sables landais.
-À ce tableau se rajoute les affluents rive gauche du fleuve (l'Eau Bourde à Canéjean, l'Eau Blanche à Léognan, le Breyra à Martillac, le Saucats à La Brède et le Gat mort à Saint-Morillon) qui non seulement découpent les terrasses en croupes, mais mettent au jour le substrat calcaire comme autant d'îlots : un peu de calcaire gréseux dit « faluns de Léognan » du Burdigalien près de Léognan, du « faluns de Labrède » qui est un calcaire friable (un peu sableux, fossilifère) datant de l'Aquitanien (Miocène inférieur) et du calcaire à Astéries du Stampien[5],[6].
+À ce tableau se rajoute les affluents rive gauche du fleuve (l'Eau Bourde à Canéjean, l'Eau Blanche à Léognan, le Breyra à Martillac, le Saucats à La Brède et le Gat mort à Saint-Morillon) qui non seulement découpent les terrasses en croupes, mais mettent au jour le substrat calcaire comme autant d'îlots : un peu de calcaire gréseux dit « faluns de Léognan » du Burdigalien près de Léognan, du « faluns de Labrède » qui est un calcaire friable (un peu sableux, fossilifère) datant de l'Aquitanien (Miocène inférieur) et du calcaire à Astéries du Stampien,.
 </t>
         </is>
       </c>
